--- a/Selected Indicators.xlsx
+++ b/Selected Indicators.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="75">
   <si>
     <t>Type of indicator</t>
   </si>
@@ -44,15 +44,9 @@
     <t>Comments</t>
   </si>
   <si>
-    <t>Ecological</t>
-  </si>
-  <si>
     <t>Species richness</t>
   </si>
   <si>
-    <t>Relative change in number of species across years within reserve compared to control zone</t>
-  </si>
-  <si>
     <t>Discrete</t>
   </si>
   <si>
@@ -74,15 +68,6 @@
     <t>Comparison of density of surveyed species inside / outside the reserve</t>
   </si>
   <si>
-    <t>Resilience</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Relative change in species richness and species abundance in response to changes in environmental conditions: reserve compared to control zones </t>
-  </si>
-  <si>
-    <t>Trophic niches?</t>
-  </si>
-  <si>
     <t>Calculate mean trophic level before and after reserve implementation and between reserve and control site</t>
   </si>
   <si>
@@ -92,12 +77,6 @@
     <t>Total landings</t>
   </si>
   <si>
-    <t>Have landings increased since the implementation of the reserves?</t>
-  </si>
-  <si>
-    <t>Cost of reserve</t>
-  </si>
-  <si>
     <t>Initial cost of implementation (including time spent/distance traveled) and cost of monitoring and management in terms of present value</t>
   </si>
   <si>
@@ -116,21 +95,6 @@
     <t>Governance</t>
   </si>
   <si>
-    <t>Management tool</t>
-  </si>
-  <si>
-    <t>Describes the type of management tool used (TURF, Permits, ITQ’s, TAC’s, Open access…)</t>
-  </si>
-  <si>
-    <t>Basurto?</t>
-  </si>
-  <si>
-    <t>Legal recognition of management tool</t>
-  </si>
-  <si>
-    <t>Whether the management tool has legal recognition</t>
-  </si>
-  <si>
     <t>Binary</t>
   </si>
   <si>
@@ -140,9 +104,6 @@
     <t>Number of fishers</t>
   </si>
   <si>
-    <t>Number of fishers with access to the area</t>
-  </si>
-  <si>
     <t>Legal recognition of reserve</t>
   </si>
   <si>
@@ -173,9 +134,6 @@
     <t>Community engagement in monitoring</t>
   </si>
   <si>
-    <t>Are users of near-by areas (fishers) and the community engaging in the monitoring?</t>
-  </si>
-  <si>
     <t>Illegal harvesting</t>
   </si>
   <si>
@@ -194,18 +152,9 @@
     <t>Description of how the reserve is enforced</t>
   </si>
   <si>
-    <t>categorical( boat patrol, fisher compliance, land observer, others)</t>
-  </si>
-  <si>
-    <t>Single or network</t>
-  </si>
-  <si>
     <t>Whether there is a single reserve or a network of multiple reserves within or nearby.</t>
   </si>
   <si>
-    <t>Whether there is a single reserve or a network of multiple reserves within or nearby the TURF.</t>
-  </si>
-  <si>
     <t>Reasoning for reserve location</t>
   </si>
   <si>
@@ -215,47 +164,98 @@
     <t>Descriptive</t>
   </si>
   <si>
-    <t>Reason for creation</t>
-  </si>
-  <si>
-    <t>The reason for establishing the reserve.</t>
-  </si>
-  <si>
-    <r>
-      <t>Categorical (</t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>declining stocks, conservation, tourism, illegal fishing</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>)</t>
-    </r>
-  </si>
-  <si>
-    <t>Are fishers organized? How? How many?</t>
-  </si>
-  <si>
     <t>Whether the fishers are organized either in a coop, association, union or fisher organization. There may be multiple organizations of fishers for one reserve.</t>
+  </si>
+  <si>
+    <t>Describes the type of access to the fishery used (TURF, Permits, ITQ’s, TAC’s, Open access…)</t>
+  </si>
+  <si>
+    <t>Access to the fishery</t>
+  </si>
+  <si>
+    <t>Who is involved in management, monitoring and enforcement</t>
+  </si>
+  <si>
+    <t>Number of fishers with legal access to the area</t>
+  </si>
+  <si>
+    <t>Percent of fishing grounds closed (for TURF-reserves only)</t>
+  </si>
+  <si>
+    <t>Are fishers organized?</t>
+  </si>
+  <si>
+    <t>How fishers are organized?</t>
+  </si>
+  <si>
+    <t>Yes or No?</t>
+  </si>
+  <si>
+    <t>Number of species managed</t>
+  </si>
+  <si>
+    <t>Number of species managed under the management tool.</t>
+  </si>
+  <si>
+    <t>Trophic niches</t>
+  </si>
+  <si>
+    <t>Managed species landings</t>
+  </si>
+  <si>
+    <t>Alternative economic opportunities</t>
+  </si>
+  <si>
+    <t>Actors of management</t>
+  </si>
+  <si>
+    <t>Size of network</t>
+  </si>
+  <si>
+    <t>Biophysical</t>
+  </si>
+  <si>
+    <t>Relative change in number of species across years within reserve and compared to control zone</t>
+  </si>
+  <si>
+    <t>Continuous</t>
+  </si>
+  <si>
+    <t>Cost of implementation and monitoring</t>
+  </si>
+  <si>
+    <t>Natural Disturbance</t>
+  </si>
+  <si>
+    <t>Information on whether that year happened a major natural disturbance and its severity</t>
+  </si>
+  <si>
+    <t>Have landings for managed species increased since the implementation of the reserves? And compared to control sites?</t>
+  </si>
+  <si>
+    <t>Have landings increased since the implementation of the reserves? And compared to control sites?</t>
+  </si>
+  <si>
+    <t>Opportunity for implementation of alternative economic activities to make up for closed/restricted fishing</t>
+  </si>
+  <si>
+    <t>Are users of near-by areas (fishers) and the community engaged in the monitoring?</t>
+  </si>
+  <si>
+    <t>Closed areas (for TURF-reserves only)</t>
+  </si>
+  <si>
+    <t>Type of species managed under the managed area</t>
+  </si>
+  <si>
+    <t>Group (fish, crustacea, mollusc,…) and category (pelagic, benthic, …)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -267,25 +267,18 @@
       <b/>
       <sz val="10"/>
       <color rgb="FF000000"/>
-      <name val="Arial"/>
-      <family val="2"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
     </font>
     <font>
       <sz val="10"/>
-      <color rgb="FF000000"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Times New Roman"/>
       <family val="1"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
+      <sz val="10"/>
+      <color theme="1"/>
       <name val="Times New Roman"/>
       <family val="1"/>
     </font>
@@ -298,7 +291,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -306,82 +299,50 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="medium">
-        <color rgb="FFCCCCCC"/>
-      </left>
-      <right style="medium">
-        <color rgb="FFCCCCCC"/>
-      </right>
-      <top style="medium">
-        <color rgb="FFCCCCCC"/>
-      </top>
-      <bottom style="medium">
-        <color rgb="FFCCCCCC"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color rgb="FFCCCCCC"/>
-      </left>
-      <right style="medium">
-        <color rgb="FFCCCCCC"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color rgb="FFCCCCCC"/>
-      </left>
-      <right style="medium">
-        <color rgb="FFCCCCCC"/>
-      </right>
-      <top style="medium">
-        <color rgb="FFCCCCCC"/>
-      </top>
-      <bottom style="medium">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -663,32 +624,33 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F27"/>
+  <dimension ref="A1:F29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="20.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="37.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="55.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="19.140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="24.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="20.85546875" style="9" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="37.42578125" style="13" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="55.28515625" style="13" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="19.140625" style="9" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="24.140625" style="9" bestFit="1" customWidth="1"/>
+    <col min="7" max="16384" width="9.140625" style="9"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="6" t="s">
         <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
@@ -698,387 +660,437 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="1" t="s">
+    <row r="2" spans="1:6" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A2" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="B2" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="3"/>
-      <c r="C2" s="3"/>
-      <c r="D2" s="3"/>
-      <c r="E2" s="3"/>
-      <c r="F2" s="4"/>
-    </row>
-    <row r="3" spans="1:6" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C2" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="D2" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2" s="10"/>
+      <c r="F2" s="10"/>
+    </row>
+    <row r="3" spans="1:6" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A3" s="3"/>
-      <c r="B3" s="5" t="s">
+      <c r="B3" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="D3" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="E3" s="3"/>
-      <c r="F3" s="4"/>
-    </row>
-    <row r="4" spans="1:6" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E3" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="F3" s="10" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A4" s="3"/>
-      <c r="B4" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C4" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="D4" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="E4" s="5" t="s">
+      <c r="B4" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="F4" s="4" t="s">
+      <c r="C4" s="7" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="5" spans="1:6" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D4" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="E4" s="10"/>
+      <c r="F4" s="10"/>
+    </row>
+    <row r="5" spans="1:6" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A5" s="3"/>
-      <c r="B5" s="5" t="s">
+      <c r="B5" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="C5" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="D5" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="E5" s="10"/>
+      <c r="F5" s="10"/>
+    </row>
+    <row r="6" spans="1:6" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A6" s="3"/>
+      <c r="B6" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="C6" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="C5" s="5" t="s">
+      <c r="D6" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="E6" s="11"/>
+      <c r="F6" s="10"/>
+    </row>
+    <row r="7" spans="1:6" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A7" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="D5" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="E5" s="3"/>
-      <c r="F5" s="4"/>
-    </row>
-    <row r="6" spans="1:6" ht="39" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="3"/>
-      <c r="B6" s="5" t="s">
+      <c r="B7" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="C6" s="5" t="s">
+      <c r="C7" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="D7" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="E7" s="10"/>
+      <c r="F7" s="10"/>
+    </row>
+    <row r="8" spans="1:6" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A8" s="3"/>
+      <c r="B8" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="C8" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="D8" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="E8" s="10"/>
+      <c r="F8" s="10"/>
+    </row>
+    <row r="9" spans="1:6" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A9" s="3"/>
+      <c r="B9" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="C9" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="D6" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="E6" s="3"/>
-      <c r="F6" s="4"/>
-    </row>
-    <row r="7" spans="1:6" ht="27" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="6"/>
-      <c r="B7" s="7" t="s">
+      <c r="D9" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="E9" s="10"/>
+      <c r="F9" s="10"/>
+    </row>
+    <row r="10" spans="1:6" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A10" s="3"/>
+      <c r="B10" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="C10" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="D10" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="E10" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="F10" s="10"/>
+    </row>
+    <row r="11" spans="1:6" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A11" s="3"/>
+      <c r="B11" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="C7" s="8" t="s">
+      <c r="C11" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="D7" s="6"/>
-      <c r="E7" s="6"/>
-      <c r="F7" s="4"/>
-    </row>
-    <row r="8" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="1" t="s">
+      <c r="D11" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="B8" s="3"/>
-      <c r="C8" s="3"/>
-      <c r="D8" s="3"/>
-      <c r="E8" s="3"/>
-      <c r="F8" s="4"/>
-    </row>
-    <row r="9" spans="1:6" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="6"/>
-      <c r="B9" s="5" t="s">
+      <c r="E11" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="C9" s="5" t="s">
+      <c r="F11" s="10"/>
+    </row>
+    <row r="12" spans="1:6" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A12" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="D9" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="E9" s="3"/>
-      <c r="F9" s="4"/>
-    </row>
-    <row r="10" spans="1:6" ht="39" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="3"/>
-      <c r="B10" s="5" t="s">
+      <c r="B12" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="C12" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="D12" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="E12" s="4"/>
+      <c r="F12" s="10"/>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13" s="3"/>
+      <c r="B13" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="C13" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="D13" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="E13" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="F13" s="10"/>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14" s="3"/>
+      <c r="B14" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="C14" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="D14" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="E14" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="F14" s="10"/>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15" s="3"/>
+      <c r="B15" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="C15" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="D15" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="C10" s="5" t="s">
+      <c r="E15" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="F15" s="10"/>
+    </row>
+    <row r="16" spans="1:6" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A16" s="3"/>
+      <c r="B16" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="C16" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="D16" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="E16" s="10"/>
+      <c r="F16" s="10"/>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A17" s="3"/>
+      <c r="B17" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="C17" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="D17" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="E17" s="10"/>
+      <c r="F17" s="10"/>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A18" s="3"/>
+      <c r="B18" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="C18" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="D18" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="E18" s="10"/>
+      <c r="F18" s="10"/>
+    </row>
+    <row r="19" spans="1:6" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A19" s="3"/>
+      <c r="B19" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="C19" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="D19" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="E19" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="F19" s="10"/>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A20" s="3"/>
+      <c r="B20" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="C20" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="D20" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="E20" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="F20" s="10"/>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A21" s="3"/>
+      <c r="B21" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="C21" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="D21" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="E21" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="F21" s="10"/>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A22" s="3"/>
+      <c r="B22" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="C22" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="D22" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="E22" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="D10" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="E10" s="3"/>
-      <c r="F10" s="4"/>
-    </row>
-    <row r="11" spans="1:6" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="3"/>
-      <c r="B11" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="C11" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="D11" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="E11" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="F11" s="4"/>
-    </row>
-    <row r="12" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="B12" s="3"/>
-      <c r="C12" s="3"/>
-      <c r="D12" s="3"/>
-      <c r="E12" s="3"/>
-      <c r="F12" s="4"/>
-    </row>
-    <row r="13" spans="1:6" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="6"/>
-      <c r="B13" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="C13" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="D13" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="E13" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="F13" s="4"/>
-    </row>
-    <row r="14" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="6"/>
-      <c r="B14" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="C14" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="D14" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="E14" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="F14" s="4"/>
-    </row>
-    <row r="15" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="6"/>
-      <c r="B15" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="C15" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="D15" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="E15" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="F15" s="4"/>
-    </row>
-    <row r="16" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="6"/>
-      <c r="B16" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="C16" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="D16" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="E16" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="F16" s="4"/>
-    </row>
-    <row r="17" spans="1:6" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="6"/>
-      <c r="B17" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="C17" s="5" t="s">
+      <c r="F22" s="10"/>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A23" s="3"/>
+      <c r="B23" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="C23" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="D23" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="E23" s="4"/>
+      <c r="F23" s="10"/>
+    </row>
+    <row r="24" spans="1:6" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A24" s="3"/>
+      <c r="B24" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="C24" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="D17" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="E17" s="3"/>
-      <c r="F17" s="4"/>
-    </row>
-    <row r="18" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="6"/>
-      <c r="B18" s="5" t="s">
+      <c r="D24" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="E24" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="F24" s="10"/>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A25" s="3"/>
+      <c r="B25" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="C18" s="5" t="s">
+      <c r="C25" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="D18" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="E18" s="3"/>
-      <c r="F18" s="4"/>
-    </row>
-    <row r="19" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="6"/>
-      <c r="B19" s="5" t="s">
+      <c r="D25" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="C19" s="5" t="s">
+      <c r="E25" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="F25" s="10"/>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A26" s="3"/>
+      <c r="B26" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="C26" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="D26" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="E26" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="F26" s="10"/>
+    </row>
+    <row r="27" spans="1:6" ht="38.25" x14ac:dyDescent="0.25">
+      <c r="A27" s="3"/>
+      <c r="B27" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="C27" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="D19" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="E19" s="3"/>
-      <c r="F19" s="4"/>
-    </row>
-    <row r="20" spans="1:6" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="6"/>
-      <c r="B20" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="C20" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="D20" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="E20" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="F20" s="4"/>
-    </row>
-    <row r="21" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="6"/>
-      <c r="B21" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="C21" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="D21" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="E21" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="F21" s="4"/>
-    </row>
-    <row r="22" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="6"/>
-      <c r="B22" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="C22" s="5" t="s">
-        <v>53</v>
-      </c>
-      <c r="D22" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="E22" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="F22" s="4"/>
-    </row>
-    <row r="23" spans="1:6" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="6"/>
-      <c r="B23" s="5" t="s">
-        <v>54</v>
-      </c>
-      <c r="C23" s="5" t="s">
+      <c r="D27" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="E27" s="4"/>
+      <c r="F27" s="10"/>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A28" s="3"/>
+      <c r="B28" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="D23" s="5" t="s">
+      <c r="C28" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="E23" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="F23" s="4"/>
-    </row>
-    <row r="24" spans="1:6" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="6"/>
-      <c r="B24" s="9" t="s">
-        <v>57</v>
-      </c>
-      <c r="C24" s="9" t="s">
-        <v>58</v>
-      </c>
-      <c r="D24" s="9" t="s">
-        <v>59</v>
-      </c>
-      <c r="E24" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="F24" s="4"/>
-    </row>
-    <row r="25" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="6"/>
-      <c r="B25" s="9" t="s">
-        <v>60</v>
-      </c>
-      <c r="C25" s="9" t="s">
-        <v>61</v>
-      </c>
-      <c r="D25" s="5" t="s">
-        <v>62</v>
-      </c>
-      <c r="E25" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="F25" s="4"/>
-    </row>
-    <row r="26" spans="1:6" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="6"/>
-      <c r="B26" s="9" t="s">
-        <v>63</v>
-      </c>
-      <c r="C26" s="10" t="s">
-        <v>64</v>
-      </c>
-      <c r="D26" s="9" t="s">
-        <v>65</v>
-      </c>
-      <c r="E26" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="F26" s="4"/>
-    </row>
-    <row r="27" spans="1:6" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="6"/>
-      <c r="B27" s="9" t="s">
-        <v>66</v>
-      </c>
-      <c r="C27" s="9" t="s">
-        <v>67</v>
-      </c>
-      <c r="D27" s="9" t="s">
-        <v>35</v>
-      </c>
-      <c r="E27" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="F27" s="4"/>
+      <c r="D28" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="E28" s="4"/>
+      <c r="F28" s="10"/>
+    </row>
+    <row r="29" spans="1:6" s="12" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A29" s="3"/>
+      <c r="B29" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="C29" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="D29" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="E29" s="5"/>
     </row>
   </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="A2:A6"/>
+    <mergeCell ref="A7:A11"/>
+    <mergeCell ref="A12:A29"/>
+  </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
 </file>